--- a/data/trans_dic/P56$amigo-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05247961528389946</v>
+        <v>0.05247961528389947</v>
       </c>
     </row>
     <row r="5">
@@ -739,13 +739,13 @@
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.4159083278102039</v>
+        <v>0.4662883592679828</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.2623460295109382</v>
+        <v>0.245731771021217</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07694849233776224</v>
+        <v>0.07694849233776226</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2850978125515311</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06934110746457707</v>
+        <v>0.06934110746457708</v>
       </c>
     </row>
     <row r="8">
@@ -837,7 +837,7 @@
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.3206254041663116</v>
+        <v>0.3368526790098374</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>1</v>
@@ -845,7 +845,7 @@
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.3040514238913575</v>
+        <v>0.2644559288407974</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>1</v>
@@ -853,7 +853,7 @@
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.22011904103829</v>
+        <v>0.2117827400326006</v>
       </c>
     </row>
     <row r="10">
@@ -941,13 +941,13 @@
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.5257559673656391</v>
+        <v>0.5311628044800202</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.3763794171624869</v>
+        <v>0.3216480324095425</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08062188714214116</v>
+        <v>0.08062188714214118</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.08578062679908229</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05775837583348874</v>
+        <v>0.05775837583348875</v>
       </c>
     </row>
     <row r="14">
@@ -1013,7 +1013,7 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.01107866767900985</v>
+        <v>0.01155949762434929</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1021,15 +1021,15 @@
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.02294189112167793</v>
+        <v>0.0208596435074022</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02719755133272835</v>
+        <v>0.02693685895335765</v>
       </c>
       <c r="L14" s="5" t="inlineStr"/>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="n">
-        <v>0.02472364626203237</v>
+        <v>0.02392241122695137</v>
       </c>
     </row>
     <row r="15">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2405283345381546</v>
+        <v>0.2067272629733651</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1144327593431773</v>
+        <v>0.1260633399093646</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6065043564350855</v>
+        <v>0.595998673654438</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.1793487942927836</v>
+        <v>0.1842618166072294</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2219131886661947</v>
+        <v>0.204387163242203</v>
       </c>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.111325877284705</v>
+        <v>0.1131974463524745</v>
       </c>
     </row>
     <row r="16">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004471390354330897</v>
+        <v>0.004407541350641745</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008990379111921857</v>
+        <v>0.008935694802001038</v>
       </c>
     </row>
     <row r="18">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4133053282649956</v>
+        <v>0.3973624768009766</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.146372220474467</v>
+        <v>0.1575754587378165</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.1003078898819201</v>
+        <v>0.1072324645508007</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1992170379568381</v>
+        <v>0.2054323335551546</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04800082948295294</v>
+        <v>0.04595446439267507</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2212862427317232</v>
+        <v>0.2105357075344362</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09873330301504167</v>
+        <v>0.07702776988532604</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1194177238928763</v>
+        <v>0.1177948826302719</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05491363536528532</v>
+        <v>0.04967104961232413</v>
       </c>
     </row>
     <row r="19">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.006058709811086104</v>
+        <v>0.005957679852209487</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.005872570331813399</v>
+        <v>0.005654494246125441</v>
       </c>
     </row>
     <row r="21">
@@ -1275,23 +1275,23 @@
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.05228021899557583</v>
+        <v>0.05222304696983503</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05721405639914937</v>
+        <v>0.06040352432035021</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05791082671837085</v>
+        <v>0.05171097214268259</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.05228021899557583</v>
+        <v>0.05222304696983503</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05721405639914937</v>
+        <v>0.06040352432035021</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05498691428444936</v>
+        <v>0.05260980718654078</v>
       </c>
     </row>
     <row r="22">
@@ -1350,36 +1350,36 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.01556515712857548</v>
+        <v>0.01482206861963521</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01026956904322174</v>
+        <v>0.01027298189059196</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.005524196214193393</v>
+        <v>0.00178366906937069</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01764004280946233</v>
+        <v>0.01539137678973241</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.00748060452162499</v>
+        <v>0.007419761415610418</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.003999884398752087</v>
+        <v>0.003987713463041596</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02025498435777193</v>
+        <v>0.01947382352971439</v>
       </c>
     </row>
     <row r="24">
@@ -1390,36 +1390,36 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.08185364506931839</v>
+        <v>0.08179721509360127</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05481455475520246</v>
+        <v>0.05936938581478259</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05475693901503022</v>
+        <v>0.05239742170188901</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04945336712866623</v>
+        <v>0.04833701500029226</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04166618590215334</v>
+        <v>0.03979714844576299</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0374056127642347</v>
+        <v>0.03484468447989239</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05106768470203851</v>
+        <v>0.04857731084636161</v>
       </c>
     </row>
     <row r="25">
@@ -1723,13 +1723,13 @@
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>2656</v>
+        <v>2978</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>3226</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="8">
@@ -1865,7 +1865,7 @@
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>2868</v>
+        <v>3013</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>3248</v>
@@ -1873,7 +1873,7 @@
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>2943</v>
+        <v>2560</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>4066</v>
@@ -1881,7 +1881,7 @@
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>4099</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="12">
@@ -2013,13 +2013,13 @@
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>5531</v>
+        <v>5588</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>6630</v>
+        <v>5666</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="inlineStr"/>
@@ -2129,7 +2129,7 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2137,15 +2137,15 @@
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>691</v>
+        <v>629</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="L18" s="6" t="inlineStr"/>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="n">
-        <v>2096</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="19">
@@ -2156,28 +2156,28 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7085</v>
+        <v>6090</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>6254</v>
+        <v>6889</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4460</v>
+        <v>4383</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>5405</v>
+        <v>5553</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8169</v>
+        <v>7524</v>
       </c>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>9439</v>
+        <v>9598</v>
       </c>
     </row>
     <row r="20">
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="23">
@@ -2318,34 +2318,34 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4234</v>
+        <v>4071</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>2746</v>
+        <v>2957</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>6555</v>
+        <v>7007</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7125</v>
+        <v>7348</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4313</v>
+        <v>4129</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6087</v>
+        <v>5791</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>8243</v>
+        <v>6431</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>7337</v>
+        <v>7237</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5965</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="24">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>676</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27">
@@ -2479,23 +2479,23 @@
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5417</v>
+        <v>5411</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5510</v>
+        <v>5817</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6534</v>
+        <v>5835</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>5417</v>
+        <v>5411</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>5510</v>
+        <v>5817</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>6326</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="28">
@@ -2598,36 +2598,36 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>1630</v>
+        <v>1552</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
+        <v>2099</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>304</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>4150</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>1937</v>
+      </c>
+      <c r="L30" s="6" t="n">
         <v>2098</v>
       </c>
-      <c r="I30" s="6" t="n">
-        <v>942</v>
-      </c>
-      <c r="J30" s="6" t="n">
-        <v>4756</v>
-      </c>
-      <c r="K30" s="6" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L30" s="6" t="n">
-        <v>2115</v>
-      </c>
       <c r="M30" s="6" t="n">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>7583</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="31">
@@ -2638,36 +2638,36 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>8572</v>
+        <v>8566</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>11197</v>
+        <v>12128</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>9340</v>
+        <v>8938</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>13335</v>
+        <v>13034</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>11782</v>
+        <v>11254</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>9077</v>
+        <v>8456</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>19118</v>
+        <v>18185</v>
       </c>
     </row>
     <row r="32">
